--- a/data/prepr/metrics/Utilities_sector_base_metrics.xlsx
+++ b/data/prepr/metrics/Utilities_sector_base_metrics.xlsx
@@ -476,8 +476,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0.122</v>
@@ -505,8 +507,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.092</v>
@@ -534,8 +538,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0.08</v>
@@ -563,8 +569,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.139</v>
@@ -592,8 +600,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0.104</v>
@@ -621,8 +631,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.249</v>
@@ -650,8 +662,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PCG</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0.065</v>
@@ -679,8 +693,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.144</v>
@@ -708,8 +724,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0.114</v>
@@ -737,8 +755,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>PEG</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0.149</v>
@@ -766,8 +786,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0.04</v>
@@ -795,8 +817,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>VST</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0.252</v>
@@ -824,8 +848,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0.07000000000000001</v>
@@ -853,8 +879,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0.17</v>
@@ -882,8 +910,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>WEC</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0.065</v>
@@ -911,8 +941,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AWK</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0.148</v>
@@ -940,8 +972,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0.197</v>
@@ -969,8 +1003,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0.149</v>
@@ -998,8 +1034,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0.059</v>
@@ -1027,8 +1065,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0.16</v>
@@ -1056,8 +1096,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0.213</v>
@@ -1085,8 +1127,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AEE</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0.108</v>
@@ -1114,8 +1158,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>CNP</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0.258</v>
@@ -1143,8 +1189,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CMS</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0.077</v>
@@ -1172,8 +1220,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ATO</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0.21</v>
@@ -1201,8 +1251,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0.165</v>
@@ -1230,8 +1282,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0.338</v>
@@ -1259,8 +1313,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>LNT</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0.17</v>
@@ -1288,8 +1344,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0.14</v>
@@ -1317,8 +1375,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>EVRG</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0.144</v>
@@ -1346,8 +1406,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>PNW</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0.094</v>
